--- a/biology/Médecine/Glycosurie/Glycosurie.xlsx
+++ b/biology/Médecine/Glycosurie/Glycosurie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La glycosurie est la présence de glucose dans les urines. Son apparition est liée à un taux de glucose dans le sang (glycémie) trop important. Normalement, elle est strictement nulle.
 </t>
@@ -511,7 +523,9 @@
           <t>Glycosurie et rein</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À partir d'une certaine valeur maximale pour la glycémie (1,8 g/l), les reins ne sont plus capables de réabsorber le glucose.
 </t>
@@ -542,7 +556,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsqu'un test d'urine montre un résultat positif pour le glucose, il est important de prendre des mesures supplémentaires pour comprendre les causes sous-jacentes. Il est recommandé de vérifier la valeur de la  glycémie dans le sang pour déterminer les raisons possibles de ce résultat, qui peuvent varier en fonction de la présence ou non d'une hyperglycémie (niveau élevé de glucose dans le sang).
 Si la glycosurie est associée à une hyperglycémie, cela peut être principalement dû au diabète sucré ou à des maladies endocriniennes. 
@@ -575,7 +591,9 @@
           <t>Dépistage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Autrefois, on goûtait les urines.
 De nos jours, il existe des tests en bandelettes que l'on trempe directement dans les urines détectant la présence de sucre.
